--- a/data/course/resultat_kurs_2023.xlsx
+++ b/data/course/resultat_kurs_2023.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10511"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/said/Documents/github/DataVisualisering_Projekt_YhKollen_G1/data/course/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anton\Documents\GIT\DataVisualisering_Projekt_YhKollen_G1\data\course\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC451324-1DFB-464B-9E68-0A01838461AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DE7CDDD-D2CA-48BB-99DE-973F3D627F48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16300" xr2:uid="{29B5C076-E3E4-498F-85F5-5511495C9F90}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="7845" xr2:uid="{29B5C076-E3E4-498F-85F5-5511495C9F90}"/>
   </bookViews>
   <sheets>
     <sheet name="Lista ansökningar" sheetId="1" r:id="rId1"/>
@@ -1930,9 +1930,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema Office 2013 – 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 – 2022">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1970,7 +1970,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 – 2022">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2076,7 +2076,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 – 2022">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2228,20 +2228,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C05567A-0519-47C2-BB70-0204226A3EFB}">
   <dimension ref="A1:I281"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="34.5" customWidth="1"/>
-    <col min="4" max="5" width="16.1640625" customWidth="1"/>
-    <col min="6" max="6" width="12.5" customWidth="1"/>
-    <col min="7" max="7" width="17.1640625" customWidth="1"/>
-    <col min="8" max="8" width="15.5" customWidth="1"/>
+    <col min="1" max="3" width="34.42578125" customWidth="1"/>
+    <col min="4" max="4" width="28.140625" customWidth="1"/>
+    <col min="5" max="5" width="25.7109375" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" customWidth="1"/>
+    <col min="7" max="7" width="17.140625" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>560</v>
       </c>
@@ -2263,14 +2264,14 @@
       <c r="G1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="15" t="s">
+        <v>557</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="15" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -2292,14 +2293,14 @@
       <c r="G2" t="s">
         <v>15</v>
       </c>
-      <c r="H2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H2">
+        <v>2023</v>
+      </c>
+      <c r="I2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -2321,14 +2322,14 @@
       <c r="G3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H3">
+        <v>2023</v>
+      </c>
+      <c r="I3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -2350,14 +2351,14 @@
       <c r="G4" t="s">
         <v>26</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4">
+        <v>2023</v>
+      </c>
+      <c r="I4" t="s">
         <v>23</v>
       </c>
-      <c r="I4">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -2379,14 +2380,14 @@
       <c r="G5" t="s">
         <v>31</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5">
+        <v>2023</v>
+      </c>
+      <c r="I5" t="s">
         <v>23</v>
       </c>
-      <c r="I5">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -2408,14 +2409,14 @@
       <c r="G6" t="s">
         <v>31</v>
       </c>
-      <c r="H6" t="s">
-        <v>11</v>
-      </c>
-      <c r="I6">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H6">
+        <v>2023</v>
+      </c>
+      <c r="I6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -2437,14 +2438,14 @@
       <c r="G7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7">
+        <v>2023</v>
+      </c>
+      <c r="I7" t="s">
         <v>23</v>
       </c>
-      <c r="I7">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>35</v>
       </c>
@@ -2466,14 +2467,14 @@
       <c r="G8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8">
+        <v>2023</v>
+      </c>
+      <c r="I8" t="s">
         <v>23</v>
       </c>
-      <c r="I8">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>40</v>
       </c>
@@ -2495,14 +2496,14 @@
       <c r="G9" t="s">
         <v>43</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9">
+        <v>2023</v>
+      </c>
+      <c r="I9" t="s">
         <v>23</v>
       </c>
-      <c r="I9">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>40</v>
       </c>
@@ -2524,14 +2525,14 @@
       <c r="G10" t="s">
         <v>43</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10">
+        <v>2023</v>
+      </c>
+      <c r="I10" t="s">
         <v>23</v>
       </c>
-      <c r="I10">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>35</v>
       </c>
@@ -2553,14 +2554,14 @@
       <c r="G11" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11">
+        <v>2023</v>
+      </c>
+      <c r="I11" t="s">
         <v>23</v>
       </c>
-      <c r="I11">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>48</v>
       </c>
@@ -2582,14 +2583,14 @@
       <c r="G12" t="s">
         <v>31</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H12">
+        <v>2023</v>
+      </c>
+      <c r="I12" t="s">
         <v>23</v>
       </c>
-      <c r="I12">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -2611,14 +2612,14 @@
       <c r="G13" t="s">
         <v>51</v>
       </c>
-      <c r="H13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I13">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H13">
+        <v>2023</v>
+      </c>
+      <c r="I13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>48</v>
       </c>
@@ -2640,14 +2641,14 @@
       <c r="G14" t="s">
         <v>31</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H14">
+        <v>2023</v>
+      </c>
+      <c r="I14" t="s">
         <v>23</v>
       </c>
-      <c r="I14">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>48</v>
       </c>
@@ -2669,14 +2670,14 @@
       <c r="G15" t="s">
         <v>31</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H15">
+        <v>2023</v>
+      </c>
+      <c r="I15" t="s">
         <v>23</v>
       </c>
-      <c r="I15">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>35</v>
       </c>
@@ -2698,14 +2699,14 @@
       <c r="G16" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H16">
+        <v>2023</v>
+      </c>
+      <c r="I16" t="s">
         <v>23</v>
       </c>
-      <c r="I16">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>40</v>
       </c>
@@ -2727,14 +2728,14 @@
       <c r="G17" t="s">
         <v>43</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H17">
+        <v>2023</v>
+      </c>
+      <c r="I17" t="s">
         <v>23</v>
       </c>
-      <c r="I17">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>40</v>
       </c>
@@ -2756,14 +2757,14 @@
       <c r="G18" t="s">
         <v>43</v>
       </c>
-      <c r="H18" t="s">
-        <v>11</v>
-      </c>
-      <c r="I18">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H18">
+        <v>2023</v>
+      </c>
+      <c r="I18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>62</v>
       </c>
@@ -2785,14 +2786,14 @@
       <c r="G19" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H19">
+        <v>2023</v>
+      </c>
+      <c r="I19" t="s">
         <v>23</v>
       </c>
-      <c r="I19">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>40</v>
       </c>
@@ -2814,14 +2815,14 @@
       <c r="G20" t="s">
         <v>43</v>
       </c>
-      <c r="H20" t="s">
-        <v>11</v>
-      </c>
-      <c r="I20">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H20">
+        <v>2023</v>
+      </c>
+      <c r="I20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -2843,14 +2844,14 @@
       <c r="G21" t="s">
         <v>66</v>
       </c>
-      <c r="H21" t="s">
+      <c r="H21">
+        <v>2023</v>
+      </c>
+      <c r="I21" t="s">
         <v>23</v>
       </c>
-      <c r="I21">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>40</v>
       </c>
@@ -2872,14 +2873,14 @@
       <c r="G22" t="s">
         <v>43</v>
       </c>
-      <c r="H22" t="s">
-        <v>11</v>
-      </c>
-      <c r="I22">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H22">
+        <v>2023</v>
+      </c>
+      <c r="I22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>69</v>
       </c>
@@ -2901,14 +2902,14 @@
       <c r="G23" t="s">
         <v>71</v>
       </c>
-      <c r="H23" t="s">
-        <v>11</v>
-      </c>
-      <c r="I23">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H23">
+        <v>2023</v>
+      </c>
+      <c r="I23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>69</v>
       </c>
@@ -2930,14 +2931,14 @@
       <c r="G24" t="s">
         <v>73</v>
       </c>
-      <c r="H24" t="s">
-        <v>11</v>
-      </c>
-      <c r="I24">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H24">
+        <v>2023</v>
+      </c>
+      <c r="I24" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>75</v>
       </c>
@@ -2959,14 +2960,14 @@
       <c r="G25" t="s">
         <v>51</v>
       </c>
-      <c r="H25" t="s">
+      <c r="H25">
+        <v>2023</v>
+      </c>
+      <c r="I25" t="s">
         <v>23</v>
       </c>
-      <c r="I25">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>19</v>
       </c>
@@ -2988,14 +2989,14 @@
       <c r="G26" t="s">
         <v>73</v>
       </c>
-      <c r="H26" t="s">
+      <c r="H26">
+        <v>2023</v>
+      </c>
+      <c r="I26" t="s">
         <v>23</v>
       </c>
-      <c r="I26">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>19</v>
       </c>
@@ -3017,14 +3018,14 @@
       <c r="G27" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H27" t="s">
+      <c r="H27">
+        <v>2023</v>
+      </c>
+      <c r="I27" t="s">
         <v>23</v>
       </c>
-      <c r="I27">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>80</v>
       </c>
@@ -3046,14 +3047,14 @@
       <c r="G28" t="s">
         <v>83</v>
       </c>
-      <c r="H28" t="s">
-        <v>11</v>
-      </c>
-      <c r="I28">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H28">
+        <v>2023</v>
+      </c>
+      <c r="I28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>19</v>
       </c>
@@ -3075,14 +3076,14 @@
       <c r="G29" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H29" t="s">
-        <v>11</v>
-      </c>
-      <c r="I29">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H29">
+        <v>2023</v>
+      </c>
+      <c r="I29" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>87</v>
       </c>
@@ -3104,14 +3105,14 @@
       <c r="G30" t="s">
         <v>89</v>
       </c>
-      <c r="H30" t="s">
-        <v>11</v>
-      </c>
-      <c r="I30">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H30">
+        <v>2023</v>
+      </c>
+      <c r="I30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>87</v>
       </c>
@@ -3133,14 +3134,14 @@
       <c r="G31" t="s">
         <v>89</v>
       </c>
-      <c r="H31" t="s">
-        <v>11</v>
-      </c>
-      <c r="I31">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H31">
+        <v>2023</v>
+      </c>
+      <c r="I31" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>87</v>
       </c>
@@ -3162,14 +3163,14 @@
       <c r="G32" t="s">
         <v>89</v>
       </c>
-      <c r="H32" t="s">
-        <v>11</v>
-      </c>
-      <c r="I32">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H32">
+        <v>2023</v>
+      </c>
+      <c r="I32" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>87</v>
       </c>
@@ -3191,14 +3192,14 @@
       <c r="G33" t="s">
         <v>89</v>
       </c>
-      <c r="H33" t="s">
-        <v>11</v>
-      </c>
-      <c r="I33">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H33">
+        <v>2023</v>
+      </c>
+      <c r="I33" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>28</v>
       </c>
@@ -3220,14 +3221,14 @@
       <c r="G34" t="s">
         <v>51</v>
       </c>
-      <c r="H34" t="s">
-        <v>11</v>
-      </c>
-      <c r="I34">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H34">
+        <v>2023</v>
+      </c>
+      <c r="I34" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>19</v>
       </c>
@@ -3249,14 +3250,14 @@
       <c r="G35" t="s">
         <v>95</v>
       </c>
-      <c r="H35" t="s">
-        <v>11</v>
-      </c>
-      <c r="I35">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H35">
+        <v>2023</v>
+      </c>
+      <c r="I35" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>40</v>
       </c>
@@ -3278,14 +3279,14 @@
       <c r="G36" t="s">
         <v>43</v>
       </c>
-      <c r="H36" t="s">
+      <c r="H36">
+        <v>2023</v>
+      </c>
+      <c r="I36" t="s">
         <v>23</v>
       </c>
-      <c r="I36">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>19</v>
       </c>
@@ -3307,14 +3308,14 @@
       <c r="G37" t="s">
         <v>98</v>
       </c>
-      <c r="H37" t="s">
-        <v>11</v>
-      </c>
-      <c r="I37">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H37">
+        <v>2023</v>
+      </c>
+      <c r="I37" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>48</v>
       </c>
@@ -3336,14 +3337,14 @@
       <c r="G38" t="s">
         <v>31</v>
       </c>
-      <c r="H38" t="s">
+      <c r="H38">
+        <v>2023</v>
+      </c>
+      <c r="I38" t="s">
         <v>23</v>
       </c>
-      <c r="I38">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>19</v>
       </c>
@@ -3365,14 +3366,14 @@
       <c r="G39" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H39" t="s">
-        <v>11</v>
-      </c>
-      <c r="I39">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H39">
+        <v>2023</v>
+      </c>
+      <c r="I39" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>75</v>
       </c>
@@ -3394,14 +3395,14 @@
       <c r="G40" t="s">
         <v>51</v>
       </c>
-      <c r="H40" t="s">
+      <c r="H40">
+        <v>2023</v>
+      </c>
+      <c r="I40" t="s">
         <v>23</v>
       </c>
-      <c r="I40">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>62</v>
       </c>
@@ -3423,14 +3424,14 @@
       <c r="G41" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H41" t="s">
-        <v>11</v>
-      </c>
-      <c r="I41">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H41">
+        <v>2023</v>
+      </c>
+      <c r="I41" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>106</v>
       </c>
@@ -3452,14 +3453,14 @@
       <c r="G42" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H42" t="s">
+      <c r="H42">
+        <v>2023</v>
+      </c>
+      <c r="I42" t="s">
         <v>23</v>
       </c>
-      <c r="I42">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>19</v>
       </c>
@@ -3481,14 +3482,14 @@
       <c r="G43" t="s">
         <v>31</v>
       </c>
-      <c r="H43" t="s">
+      <c r="H43">
+        <v>2023</v>
+      </c>
+      <c r="I43" t="s">
         <v>23</v>
       </c>
-      <c r="I43">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>19</v>
       </c>
@@ -3510,14 +3511,14 @@
       <c r="G44" t="s">
         <v>110</v>
       </c>
-      <c r="H44" t="s">
+      <c r="H44">
+        <v>2023</v>
+      </c>
+      <c r="I44" t="s">
         <v>23</v>
       </c>
-      <c r="I44">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>19</v>
       </c>
@@ -3539,14 +3540,14 @@
       <c r="G45" t="s">
         <v>31</v>
       </c>
-      <c r="H45" t="s">
+      <c r="H45">
+        <v>2023</v>
+      </c>
+      <c r="I45" t="s">
         <v>23</v>
       </c>
-      <c r="I45">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>113</v>
       </c>
@@ -3568,14 +3569,14 @@
       <c r="G46" t="s">
         <v>31</v>
       </c>
-      <c r="H46" t="s">
-        <v>11</v>
-      </c>
-      <c r="I46">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H46">
+        <v>2023</v>
+      </c>
+      <c r="I46" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>19</v>
       </c>
@@ -3597,14 +3598,14 @@
       <c r="G47" t="s">
         <v>73</v>
       </c>
-      <c r="H47" t="s">
+      <c r="H47">
+        <v>2023</v>
+      </c>
+      <c r="I47" t="s">
         <v>23</v>
       </c>
-      <c r="I47">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>19</v>
       </c>
@@ -3626,14 +3627,14 @@
       <c r="G48" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H48" t="s">
+      <c r="H48">
+        <v>2023</v>
+      </c>
+      <c r="I48" t="s">
         <v>23</v>
       </c>
-      <c r="I48">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>19</v>
       </c>
@@ -3655,14 +3656,14 @@
       <c r="G49" t="s">
         <v>51</v>
       </c>
-      <c r="H49" t="s">
+      <c r="H49">
+        <v>2023</v>
+      </c>
+      <c r="I49" t="s">
         <v>23</v>
       </c>
-      <c r="I49">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>119</v>
       </c>
@@ -3684,14 +3685,14 @@
       <c r="G50" t="s">
         <v>51</v>
       </c>
-      <c r="H50" t="s">
+      <c r="H50">
+        <v>2023</v>
+      </c>
+      <c r="I50" t="s">
         <v>23</v>
       </c>
-      <c r="I50">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>121</v>
       </c>
@@ -3713,14 +3714,14 @@
       <c r="G51" t="s">
         <v>123</v>
       </c>
-      <c r="H51" t="s">
-        <v>11</v>
-      </c>
-      <c r="I51">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H51">
+        <v>2023</v>
+      </c>
+      <c r="I51" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>121</v>
       </c>
@@ -3742,14 +3743,14 @@
       <c r="G52" t="s">
         <v>123</v>
       </c>
-      <c r="H52" t="s">
-        <v>11</v>
-      </c>
-      <c r="I52">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H52">
+        <v>2023</v>
+      </c>
+      <c r="I52" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>121</v>
       </c>
@@ -3771,14 +3772,14 @@
       <c r="G53" t="s">
         <v>123</v>
       </c>
-      <c r="H53" t="s">
-        <v>11</v>
-      </c>
-      <c r="I53">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H53">
+        <v>2023</v>
+      </c>
+      <c r="I53" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>121</v>
       </c>
@@ -3800,14 +3801,14 @@
       <c r="G54" t="s">
         <v>123</v>
       </c>
-      <c r="H54" t="s">
-        <v>11</v>
-      </c>
-      <c r="I54">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H54">
+        <v>2023</v>
+      </c>
+      <c r="I54" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>40</v>
       </c>
@@ -3829,14 +3830,14 @@
       <c r="G55" t="s">
         <v>43</v>
       </c>
-      <c r="H55" t="s">
-        <v>11</v>
-      </c>
-      <c r="I55">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H55">
+        <v>2023</v>
+      </c>
+      <c r="I55" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>48</v>
       </c>
@@ -3858,14 +3859,14 @@
       <c r="G56" t="s">
         <v>31</v>
       </c>
-      <c r="H56" t="s">
+      <c r="H56">
+        <v>2023</v>
+      </c>
+      <c r="I56" t="s">
         <v>23</v>
       </c>
-      <c r="I56">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>131</v>
       </c>
@@ -3887,14 +3888,14 @@
       <c r="G57" t="s">
         <v>43</v>
       </c>
-      <c r="H57" t="s">
+      <c r="H57">
+        <v>2023</v>
+      </c>
+      <c r="I57" t="s">
         <v>23</v>
       </c>
-      <c r="I57">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>131</v>
       </c>
@@ -3916,14 +3917,14 @@
       <c r="G58" t="s">
         <v>43</v>
       </c>
-      <c r="H58" t="s">
+      <c r="H58">
+        <v>2023</v>
+      </c>
+      <c r="I58" t="s">
         <v>23</v>
       </c>
-      <c r="I58">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>28</v>
       </c>
@@ -3945,14 +3946,14 @@
       <c r="G59" t="s">
         <v>31</v>
       </c>
-      <c r="H59" t="s">
+      <c r="H59">
+        <v>2023</v>
+      </c>
+      <c r="I59" t="s">
         <v>23</v>
       </c>
-      <c r="I59">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>135</v>
       </c>
@@ -3974,14 +3975,14 @@
       <c r="G60" t="s">
         <v>137</v>
       </c>
-      <c r="H60" t="s">
-        <v>11</v>
-      </c>
-      <c r="I60">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H60">
+        <v>2023</v>
+      </c>
+      <c r="I60" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>140</v>
       </c>
@@ -4003,14 +4004,14 @@
       <c r="G61" t="s">
         <v>142</v>
       </c>
-      <c r="H61" t="s">
+      <c r="H61">
+        <v>2023</v>
+      </c>
+      <c r="I61" t="s">
         <v>23</v>
       </c>
-      <c r="I61">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>143</v>
       </c>
@@ -4032,14 +4033,14 @@
       <c r="G62" t="s">
         <v>145</v>
       </c>
-      <c r="H62" t="s">
-        <v>11</v>
-      </c>
-      <c r="I62">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H62">
+        <v>2023</v>
+      </c>
+      <c r="I62" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>146</v>
       </c>
@@ -4061,14 +4062,14 @@
       <c r="G63" t="s">
         <v>149</v>
       </c>
-      <c r="H63" t="s">
+      <c r="H63">
+        <v>2023</v>
+      </c>
+      <c r="I63" t="s">
         <v>23</v>
       </c>
-      <c r="I63">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>146</v>
       </c>
@@ -4090,14 +4091,14 @@
       <c r="G64" t="s">
         <v>149</v>
       </c>
-      <c r="H64" t="s">
+      <c r="H64">
+        <v>2023</v>
+      </c>
+      <c r="I64" t="s">
         <v>23</v>
       </c>
-      <c r="I64">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>28</v>
       </c>
@@ -4119,14 +4120,14 @@
       <c r="G65" t="s">
         <v>152</v>
       </c>
-      <c r="H65" t="s">
-        <v>11</v>
-      </c>
-      <c r="I65">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H65">
+        <v>2023</v>
+      </c>
+      <c r="I65" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>146</v>
       </c>
@@ -4148,14 +4149,14 @@
       <c r="G66" t="s">
         <v>149</v>
       </c>
-      <c r="H66" t="s">
-        <v>11</v>
-      </c>
-      <c r="I66">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H66">
+        <v>2023</v>
+      </c>
+      <c r="I66" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>119</v>
       </c>
@@ -4177,14 +4178,14 @@
       <c r="G67" t="s">
         <v>51</v>
       </c>
-      <c r="H67" t="s">
+      <c r="H67">
+        <v>2023</v>
+      </c>
+      <c r="I67" t="s">
         <v>23</v>
       </c>
-      <c r="I67">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>155</v>
       </c>
@@ -4206,14 +4207,14 @@
       <c r="G68" t="s">
         <v>71</v>
       </c>
-      <c r="H68" t="s">
-        <v>11</v>
-      </c>
-      <c r="I68">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H68">
+        <v>2023</v>
+      </c>
+      <c r="I68" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>157</v>
       </c>
@@ -4235,14 +4236,14 @@
       <c r="G69" t="s">
         <v>158</v>
       </c>
-      <c r="H69" t="s">
-        <v>11</v>
-      </c>
-      <c r="I69">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H69">
+        <v>2023</v>
+      </c>
+      <c r="I69" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>75</v>
       </c>
@@ -4264,14 +4265,14 @@
       <c r="G70" t="s">
         <v>51</v>
       </c>
-      <c r="H70" t="s">
+      <c r="H70">
+        <v>2023</v>
+      </c>
+      <c r="I70" t="s">
         <v>23</v>
       </c>
-      <c r="I70">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>160</v>
       </c>
@@ -4293,14 +4294,14 @@
       <c r="G71" t="s">
         <v>162</v>
       </c>
-      <c r="H71" t="s">
-        <v>11</v>
-      </c>
-      <c r="I71">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H71">
+        <v>2023</v>
+      </c>
+      <c r="I71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>106</v>
       </c>
@@ -4322,14 +4323,14 @@
       <c r="G72" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H72" t="s">
+      <c r="H72">
+        <v>2023</v>
+      </c>
+      <c r="I72" t="s">
         <v>23</v>
       </c>
-      <c r="I72">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>165</v>
       </c>
@@ -4351,14 +4352,14 @@
       <c r="G73" t="s">
         <v>43</v>
       </c>
-      <c r="H73" t="s">
+      <c r="H73">
+        <v>2023</v>
+      </c>
+      <c r="I73" t="s">
         <v>23</v>
       </c>
-      <c r="I73">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>165</v>
       </c>
@@ -4380,14 +4381,14 @@
       <c r="G74" t="s">
         <v>43</v>
       </c>
-      <c r="H74" t="s">
+      <c r="H74">
+        <v>2023</v>
+      </c>
+      <c r="I74" t="s">
         <v>23</v>
       </c>
-      <c r="I74">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>165</v>
       </c>
@@ -4409,14 +4410,14 @@
       <c r="G75" t="s">
         <v>43</v>
       </c>
-      <c r="H75" t="s">
+      <c r="H75">
+        <v>2023</v>
+      </c>
+      <c r="I75" t="s">
         <v>23</v>
       </c>
-      <c r="I75">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>170</v>
       </c>
@@ -4438,14 +4439,14 @@
       <c r="G76" t="s">
         <v>172</v>
       </c>
-      <c r="H76" t="s">
+      <c r="H76">
+        <v>2023</v>
+      </c>
+      <c r="I76" t="s">
         <v>23</v>
       </c>
-      <c r="I76">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>143</v>
       </c>
@@ -4467,14 +4468,14 @@
       <c r="G77" t="s">
         <v>145</v>
       </c>
-      <c r="H77" t="s">
-        <v>11</v>
-      </c>
-      <c r="I77">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H77">
+        <v>2023</v>
+      </c>
+      <c r="I77" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>165</v>
       </c>
@@ -4496,14 +4497,14 @@
       <c r="G78" t="s">
         <v>43</v>
       </c>
-      <c r="H78" t="s">
+      <c r="H78">
+        <v>2023</v>
+      </c>
+      <c r="I78" t="s">
         <v>23</v>
       </c>
-      <c r="I78">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>165</v>
       </c>
@@ -4525,14 +4526,14 @@
       <c r="G79" t="s">
         <v>43</v>
       </c>
-      <c r="H79" t="s">
+      <c r="H79">
+        <v>2023</v>
+      </c>
+      <c r="I79" t="s">
         <v>23</v>
       </c>
-      <c r="I79">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>176</v>
       </c>
@@ -4554,14 +4555,14 @@
       <c r="G80" t="s">
         <v>31</v>
       </c>
-      <c r="H80" t="s">
-        <v>11</v>
-      </c>
-      <c r="I80">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H80">
+        <v>2023</v>
+      </c>
+      <c r="I80" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>177</v>
       </c>
@@ -4583,14 +4584,14 @@
       <c r="G81" t="s">
         <v>17</v>
       </c>
-      <c r="H81" t="s">
+      <c r="H81">
+        <v>2023</v>
+      </c>
+      <c r="I81" t="s">
         <v>23</v>
       </c>
-      <c r="I81">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>177</v>
       </c>
@@ -4612,14 +4613,14 @@
       <c r="G82" t="s">
         <v>17</v>
       </c>
-      <c r="H82" t="s">
+      <c r="H82">
+        <v>2023</v>
+      </c>
+      <c r="I82" t="s">
         <v>23</v>
       </c>
-      <c r="I82">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>181</v>
       </c>
@@ -4641,14 +4642,14 @@
       <c r="G83" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H83" t="s">
+      <c r="H83">
+        <v>2023</v>
+      </c>
+      <c r="I83" t="s">
         <v>23</v>
       </c>
-      <c r="I83">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>183</v>
       </c>
@@ -4670,14 +4671,14 @@
       <c r="G84" t="s">
         <v>51</v>
       </c>
-      <c r="H84" t="s">
-        <v>11</v>
-      </c>
-      <c r="I84">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H84">
+        <v>2023</v>
+      </c>
+      <c r="I84" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>184</v>
       </c>
@@ -4699,14 +4700,14 @@
       <c r="G85" t="s">
         <v>158</v>
       </c>
-      <c r="H85" t="s">
+      <c r="H85">
+        <v>2023</v>
+      </c>
+      <c r="I85" t="s">
         <v>23</v>
       </c>
-      <c r="I85">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>186</v>
       </c>
@@ -4728,14 +4729,14 @@
       <c r="G86" t="s">
         <v>188</v>
       </c>
-      <c r="H86" t="s">
+      <c r="H86">
+        <v>2023</v>
+      </c>
+      <c r="I86" t="s">
         <v>23</v>
       </c>
-      <c r="I86">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>186</v>
       </c>
@@ -4757,14 +4758,14 @@
       <c r="G87" t="s">
         <v>188</v>
       </c>
-      <c r="H87" t="s">
+      <c r="H87">
+        <v>2023</v>
+      </c>
+      <c r="I87" t="s">
         <v>23</v>
       </c>
-      <c r="I87">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>69</v>
       </c>
@@ -4786,14 +4787,14 @@
       <c r="G88" t="s">
         <v>71</v>
       </c>
-      <c r="H88" t="s">
+      <c r="H88">
+        <v>2023</v>
+      </c>
+      <c r="I88" t="s">
         <v>23</v>
       </c>
-      <c r="I88">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>186</v>
       </c>
@@ -4815,14 +4816,14 @@
       <c r="G89" t="s">
         <v>188</v>
       </c>
-      <c r="H89" t="s">
+      <c r="H89">
+        <v>2023</v>
+      </c>
+      <c r="I89" t="s">
         <v>23</v>
       </c>
-      <c r="I89">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>193</v>
       </c>
@@ -4844,14 +4845,14 @@
       <c r="G90" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H90" t="s">
-        <v>11</v>
-      </c>
-      <c r="I90">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H90">
+        <v>2023</v>
+      </c>
+      <c r="I90" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>195</v>
       </c>
@@ -4873,14 +4874,14 @@
       <c r="G91" t="s">
         <v>197</v>
       </c>
-      <c r="H91" t="s">
-        <v>11</v>
-      </c>
-      <c r="I91">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H91">
+        <v>2023</v>
+      </c>
+      <c r="I91" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>198</v>
       </c>
@@ -4902,14 +4903,14 @@
       <c r="G92" t="s">
         <v>201</v>
       </c>
-      <c r="H92" t="s">
-        <v>11</v>
-      </c>
-      <c r="I92">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H92">
+        <v>2023</v>
+      </c>
+      <c r="I92" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>198</v>
       </c>
@@ -4931,14 +4932,14 @@
       <c r="G93" t="s">
         <v>201</v>
       </c>
-      <c r="H93" t="s">
-        <v>11</v>
-      </c>
-      <c r="I93">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H93">
+        <v>2023</v>
+      </c>
+      <c r="I93" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>198</v>
       </c>
@@ -4960,14 +4961,14 @@
       <c r="G94" t="s">
         <v>201</v>
       </c>
-      <c r="H94" t="s">
-        <v>11</v>
-      </c>
-      <c r="I94">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H94">
+        <v>2023</v>
+      </c>
+      <c r="I94" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>204</v>
       </c>
@@ -4989,14 +4990,14 @@
       <c r="G95" t="s">
         <v>206</v>
       </c>
-      <c r="H95" t="s">
-        <v>11</v>
-      </c>
-      <c r="I95">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H95">
+        <v>2023</v>
+      </c>
+      <c r="I95" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>204</v>
       </c>
@@ -5018,14 +5019,14 @@
       <c r="G96" t="s">
         <v>206</v>
       </c>
-      <c r="H96" t="s">
+      <c r="H96">
+        <v>2023</v>
+      </c>
+      <c r="I96" t="s">
         <v>23</v>
       </c>
-      <c r="I96">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>209</v>
       </c>
@@ -5047,14 +5048,14 @@
       <c r="G97" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H97" t="s">
-        <v>11</v>
-      </c>
-      <c r="I97">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H97">
+        <v>2023</v>
+      </c>
+      <c r="I97" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>28</v>
       </c>
@@ -5076,14 +5077,14 @@
       <c r="G98" t="s">
         <v>66</v>
       </c>
-      <c r="H98" t="s">
-        <v>11</v>
-      </c>
-      <c r="I98">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H98">
+        <v>2023</v>
+      </c>
+      <c r="I98" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>212</v>
       </c>
@@ -5105,14 +5106,14 @@
       <c r="G99" t="s">
         <v>31</v>
       </c>
-      <c r="H99" t="s">
+      <c r="H99">
+        <v>2023</v>
+      </c>
+      <c r="I99" t="s">
         <v>23</v>
       </c>
-      <c r="I99">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>214</v>
       </c>
@@ -5134,14 +5135,14 @@
       <c r="G100" t="s">
         <v>43</v>
       </c>
-      <c r="H100" t="s">
+      <c r="H100">
+        <v>2023</v>
+      </c>
+      <c r="I100" t="s">
         <v>23</v>
       </c>
-      <c r="I100">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>165</v>
       </c>
@@ -5163,14 +5164,14 @@
       <c r="G101" t="s">
         <v>43</v>
       </c>
-      <c r="H101" t="s">
+      <c r="H101">
+        <v>2023</v>
+      </c>
+      <c r="I101" t="s">
         <v>23</v>
       </c>
-      <c r="I101">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>217</v>
       </c>
@@ -5192,14 +5193,14 @@
       <c r="G102" t="s">
         <v>43</v>
       </c>
-      <c r="H102" t="s">
+      <c r="H102">
+        <v>2023</v>
+      </c>
+      <c r="I102" t="s">
         <v>23</v>
       </c>
-      <c r="I102">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>219</v>
       </c>
@@ -5221,14 +5222,14 @@
       <c r="G103" t="s">
         <v>31</v>
       </c>
-      <c r="H103" t="s">
+      <c r="H103">
+        <v>2023</v>
+      </c>
+      <c r="I103" t="s">
         <v>23</v>
       </c>
-      <c r="I103">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>221</v>
       </c>
@@ -5250,14 +5251,14 @@
       <c r="G104" t="s">
         <v>51</v>
       </c>
-      <c r="H104" t="s">
+      <c r="H104">
+        <v>2023</v>
+      </c>
+      <c r="I104" t="s">
         <v>23</v>
       </c>
-      <c r="I104">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>221</v>
       </c>
@@ -5279,14 +5280,14 @@
       <c r="G105" t="s">
         <v>51</v>
       </c>
-      <c r="H105" t="s">
+      <c r="H105">
+        <v>2023</v>
+      </c>
+      <c r="I105" t="s">
         <v>23</v>
       </c>
-      <c r="I105">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>224</v>
       </c>
@@ -5308,14 +5309,14 @@
       <c r="G106" t="s">
         <v>43</v>
       </c>
-      <c r="H106" t="s">
+      <c r="H106">
+        <v>2023</v>
+      </c>
+      <c r="I106" t="s">
         <v>23</v>
       </c>
-      <c r="I106">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>226</v>
       </c>
@@ -5337,14 +5338,14 @@
       <c r="G107" t="s">
         <v>43</v>
       </c>
-      <c r="H107" t="s">
-        <v>11</v>
-      </c>
-      <c r="I107">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H107">
+        <v>2023</v>
+      </c>
+      <c r="I107" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>224</v>
       </c>
@@ -5366,14 +5367,14 @@
       <c r="G108" t="s">
         <v>43</v>
       </c>
-      <c r="H108" t="s">
-        <v>11</v>
-      </c>
-      <c r="I108">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H108">
+        <v>2023</v>
+      </c>
+      <c r="I108" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>229</v>
       </c>
@@ -5395,14 +5396,14 @@
       <c r="G109" t="s">
         <v>231</v>
       </c>
-      <c r="H109" t="s">
+      <c r="H109">
+        <v>2023</v>
+      </c>
+      <c r="I109" t="s">
         <v>23</v>
       </c>
-      <c r="I109">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>229</v>
       </c>
@@ -5424,14 +5425,14 @@
       <c r="G110" t="s">
         <v>231</v>
       </c>
-      <c r="H110" t="s">
+      <c r="H110">
+        <v>2023</v>
+      </c>
+      <c r="I110" t="s">
         <v>23</v>
       </c>
-      <c r="I110">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>229</v>
       </c>
@@ -5453,14 +5454,14 @@
       <c r="G111" t="s">
         <v>231</v>
       </c>
-      <c r="H111" t="s">
+      <c r="H111">
+        <v>2023</v>
+      </c>
+      <c r="I111" t="s">
         <v>23</v>
       </c>
-      <c r="I111">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>170</v>
       </c>
@@ -5482,14 +5483,14 @@
       <c r="G112" t="s">
         <v>172</v>
       </c>
-      <c r="H112" t="s">
-        <v>11</v>
-      </c>
-      <c r="I112">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H112">
+        <v>2023</v>
+      </c>
+      <c r="I112" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>170</v>
       </c>
@@ -5511,14 +5512,14 @@
       <c r="G113" t="s">
         <v>172</v>
       </c>
-      <c r="H113" t="s">
+      <c r="H113">
+        <v>2023</v>
+      </c>
+      <c r="I113" t="s">
         <v>23</v>
       </c>
-      <c r="I113">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>69</v>
       </c>
@@ -5540,14 +5541,14 @@
       <c r="G114" t="s">
         <v>73</v>
       </c>
-      <c r="H114" t="s">
+      <c r="H114">
+        <v>2023</v>
+      </c>
+      <c r="I114" t="s">
         <v>23</v>
       </c>
-      <c r="I114">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>48</v>
       </c>
@@ -5569,14 +5570,14 @@
       <c r="G115" t="s">
         <v>31</v>
       </c>
-      <c r="H115" t="s">
+      <c r="H115">
+        <v>2023</v>
+      </c>
+      <c r="I115" t="s">
         <v>23</v>
       </c>
-      <c r="I115">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>238</v>
       </c>
@@ -5598,14 +5599,14 @@
       <c r="G116" t="s">
         <v>240</v>
       </c>
-      <c r="H116" t="s">
-        <v>11</v>
-      </c>
-      <c r="I116">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H116">
+        <v>2023</v>
+      </c>
+      <c r="I116" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>69</v>
       </c>
@@ -5627,14 +5628,14 @@
       <c r="G117" t="s">
         <v>73</v>
       </c>
-      <c r="H117" t="s">
-        <v>11</v>
-      </c>
-      <c r="I117">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H117">
+        <v>2023</v>
+      </c>
+      <c r="I117" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>245</v>
       </c>
@@ -5656,14 +5657,14 @@
       <c r="G118" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H118" t="s">
-        <v>11</v>
-      </c>
-      <c r="I118">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H118">
+        <v>2023</v>
+      </c>
+      <c r="I118" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>19</v>
       </c>
@@ -5685,14 +5686,14 @@
       <c r="G119" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H119" t="s">
+      <c r="H119">
+        <v>2023</v>
+      </c>
+      <c r="I119" t="s">
         <v>23</v>
       </c>
-      <c r="I119">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>19</v>
       </c>
@@ -5714,14 +5715,14 @@
       <c r="G120" t="s">
         <v>250</v>
       </c>
-      <c r="H120" t="s">
+      <c r="H120">
+        <v>2023</v>
+      </c>
+      <c r="I120" t="s">
         <v>23</v>
       </c>
-      <c r="I120">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>245</v>
       </c>
@@ -5743,14 +5744,14 @@
       <c r="G121" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H121" t="s">
+      <c r="H121">
+        <v>2023</v>
+      </c>
+      <c r="I121" t="s">
         <v>23</v>
       </c>
-      <c r="I121">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>69</v>
       </c>
@@ -5772,14 +5773,14 @@
       <c r="G122" t="s">
         <v>123</v>
       </c>
-      <c r="H122" t="s">
-        <v>11</v>
-      </c>
-      <c r="I122">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H122">
+        <v>2023</v>
+      </c>
+      <c r="I122" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>255</v>
       </c>
@@ -5801,14 +5802,14 @@
       <c r="G123" t="s">
         <v>43</v>
       </c>
-      <c r="H123" t="s">
-        <v>11</v>
-      </c>
-      <c r="I123">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H123">
+        <v>2023</v>
+      </c>
+      <c r="I123" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>257</v>
       </c>
@@ -5830,14 +5831,14 @@
       <c r="G124" t="s">
         <v>259</v>
       </c>
-      <c r="H124" t="s">
+      <c r="H124">
+        <v>2023</v>
+      </c>
+      <c r="I124" t="s">
         <v>23</v>
       </c>
-      <c r="I124">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>170</v>
       </c>
@@ -5859,14 +5860,14 @@
       <c r="G125" t="s">
         <v>172</v>
       </c>
-      <c r="H125" t="s">
+      <c r="H125">
+        <v>2023</v>
+      </c>
+      <c r="I125" t="s">
         <v>23</v>
       </c>
-      <c r="I125">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>245</v>
       </c>
@@ -5888,14 +5889,14 @@
       <c r="G126" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H126" t="s">
-        <v>11</v>
-      </c>
-      <c r="I126">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H126">
+        <v>2023</v>
+      </c>
+      <c r="I126" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>263</v>
       </c>
@@ -5917,14 +5918,14 @@
       <c r="G127" t="s">
         <v>26</v>
       </c>
-      <c r="H127" t="s">
-        <v>11</v>
-      </c>
-      <c r="I127">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H127">
+        <v>2023</v>
+      </c>
+      <c r="I127" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>265</v>
       </c>
@@ -5946,14 +5947,14 @@
       <c r="G128" t="s">
         <v>43</v>
       </c>
-      <c r="H128" t="s">
-        <v>11</v>
-      </c>
-      <c r="I128">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H128">
+        <v>2023</v>
+      </c>
+      <c r="I128" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>265</v>
       </c>
@@ -5975,14 +5976,14 @@
       <c r="G129" t="s">
         <v>43</v>
       </c>
-      <c r="H129" t="s">
-        <v>11</v>
-      </c>
-      <c r="I129">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H129">
+        <v>2023</v>
+      </c>
+      <c r="I129" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>184</v>
       </c>
@@ -6004,14 +6005,14 @@
       <c r="G130" t="s">
         <v>158</v>
       </c>
-      <c r="H130" t="s">
+      <c r="H130">
+        <v>2023</v>
+      </c>
+      <c r="I130" t="s">
         <v>23</v>
       </c>
-      <c r="I130">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>270</v>
       </c>
@@ -6033,14 +6034,14 @@
       <c r="G131" t="s">
         <v>26</v>
       </c>
-      <c r="H131" t="s">
-        <v>11</v>
-      </c>
-      <c r="I131">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H131">
+        <v>2023</v>
+      </c>
+      <c r="I131" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>270</v>
       </c>
@@ -6062,14 +6063,14 @@
       <c r="G132" t="s">
         <v>26</v>
       </c>
-      <c r="H132" t="s">
-        <v>11</v>
-      </c>
-      <c r="I132">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H132">
+        <v>2023</v>
+      </c>
+      <c r="I132" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>270</v>
       </c>
@@ -6091,14 +6092,14 @@
       <c r="G133" t="s">
         <v>274</v>
       </c>
-      <c r="H133" t="s">
-        <v>11</v>
-      </c>
-      <c r="I133">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H133">
+        <v>2023</v>
+      </c>
+      <c r="I133" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>270</v>
       </c>
@@ -6120,14 +6121,14 @@
       <c r="G134" t="s">
         <v>26</v>
       </c>
-      <c r="H134" t="s">
-        <v>11</v>
-      </c>
-      <c r="I134">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H134">
+        <v>2023</v>
+      </c>
+      <c r="I134" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>270</v>
       </c>
@@ -6149,14 +6150,14 @@
       <c r="G135" t="s">
         <v>26</v>
       </c>
-      <c r="H135" t="s">
+      <c r="H135">
+        <v>2023</v>
+      </c>
+      <c r="I135" t="s">
         <v>23</v>
       </c>
-      <c r="I135">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>270</v>
       </c>
@@ -6178,14 +6179,14 @@
       <c r="G136" t="s">
         <v>274</v>
       </c>
-      <c r="H136" t="s">
-        <v>11</v>
-      </c>
-      <c r="I136">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H136">
+        <v>2023</v>
+      </c>
+      <c r="I136" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>270</v>
       </c>
@@ -6207,14 +6208,14 @@
       <c r="G137" t="s">
         <v>274</v>
       </c>
-      <c r="H137" t="s">
+      <c r="H137">
+        <v>2023</v>
+      </c>
+      <c r="I137" t="s">
         <v>23</v>
       </c>
-      <c r="I137">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>184</v>
       </c>
@@ -6236,14 +6237,14 @@
       <c r="G138" t="s">
         <v>158</v>
       </c>
-      <c r="H138" t="s">
+      <c r="H138">
+        <v>2023</v>
+      </c>
+      <c r="I138" t="s">
         <v>23</v>
       </c>
-      <c r="I138">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>106</v>
       </c>
@@ -6265,14 +6266,14 @@
       <c r="G139" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H139" t="s">
+      <c r="H139">
+        <v>2023</v>
+      </c>
+      <c r="I139" t="s">
         <v>23</v>
       </c>
-      <c r="I139">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>283</v>
       </c>
@@ -6294,14 +6295,14 @@
       <c r="G140" t="s">
         <v>43</v>
       </c>
-      <c r="H140" t="s">
-        <v>11</v>
-      </c>
-      <c r="I140">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H140">
+        <v>2023</v>
+      </c>
+      <c r="I140" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>286</v>
       </c>
@@ -6323,14 +6324,14 @@
       <c r="G141" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H141" t="s">
-        <v>11</v>
-      </c>
-      <c r="I141">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H141">
+        <v>2023</v>
+      </c>
+      <c r="I141" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>289</v>
       </c>
@@ -6352,14 +6353,14 @@
       <c r="G142" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H142" t="s">
+      <c r="H142">
+        <v>2023</v>
+      </c>
+      <c r="I142" t="s">
         <v>23</v>
       </c>
-      <c r="I142">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>289</v>
       </c>
@@ -6381,14 +6382,14 @@
       <c r="G143" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H143" t="s">
+      <c r="H143">
+        <v>2023</v>
+      </c>
+      <c r="I143" t="s">
         <v>23</v>
       </c>
-      <c r="I143">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>283</v>
       </c>
@@ -6410,14 +6411,14 @@
       <c r="G144" t="s">
         <v>43</v>
       </c>
-      <c r="H144" t="s">
-        <v>11</v>
-      </c>
-      <c r="I144">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H144">
+        <v>2023</v>
+      </c>
+      <c r="I144" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>229</v>
       </c>
@@ -6439,14 +6440,14 @@
       <c r="G145" t="s">
         <v>231</v>
       </c>
-      <c r="H145" t="s">
-        <v>11</v>
-      </c>
-      <c r="I145">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H145">
+        <v>2023</v>
+      </c>
+      <c r="I145" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>295</v>
       </c>
@@ -6468,14 +6469,14 @@
       <c r="G146" t="s">
         <v>297</v>
       </c>
-      <c r="H146" t="s">
+      <c r="H146">
+        <v>2023</v>
+      </c>
+      <c r="I146" t="s">
         <v>23</v>
       </c>
-      <c r="I146">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>298</v>
       </c>
@@ -6497,14 +6498,14 @@
       <c r="G147" t="s">
         <v>43</v>
       </c>
-      <c r="H147" t="s">
+      <c r="H147">
+        <v>2023</v>
+      </c>
+      <c r="I147" t="s">
         <v>23</v>
       </c>
-      <c r="I147">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>298</v>
       </c>
@@ -6526,14 +6527,14 @@
       <c r="G148" t="s">
         <v>43</v>
       </c>
-      <c r="H148" t="s">
+      <c r="H148">
+        <v>2023</v>
+      </c>
+      <c r="I148" t="s">
         <v>23</v>
       </c>
-      <c r="I148">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>298</v>
       </c>
@@ -6555,14 +6556,14 @@
       <c r="G149" t="s">
         <v>51</v>
       </c>
-      <c r="H149" t="s">
+      <c r="H149">
+        <v>2023</v>
+      </c>
+      <c r="I149" t="s">
         <v>23</v>
       </c>
-      <c r="I149">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>302</v>
       </c>
@@ -6584,14 +6585,14 @@
       <c r="G150" t="s">
         <v>43</v>
       </c>
-      <c r="H150" t="s">
+      <c r="H150">
+        <v>2023</v>
+      </c>
+      <c r="I150" t="s">
         <v>23</v>
       </c>
-      <c r="I150">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>170</v>
       </c>
@@ -6613,14 +6614,14 @@
       <c r="G151" t="s">
         <v>172</v>
       </c>
-      <c r="H151" t="s">
-        <v>11</v>
-      </c>
-      <c r="I151">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H151">
+        <v>2023</v>
+      </c>
+      <c r="I151" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>143</v>
       </c>
@@ -6642,14 +6643,14 @@
       <c r="G152" t="s">
         <v>145</v>
       </c>
-      <c r="H152" t="s">
-        <v>11</v>
-      </c>
-      <c r="I152">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H152">
+        <v>2023</v>
+      </c>
+      <c r="I152" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>306</v>
       </c>
@@ -6671,14 +6672,14 @@
       <c r="G153" t="s">
         <v>308</v>
       </c>
-      <c r="H153" t="s">
+      <c r="H153">
+        <v>2023</v>
+      </c>
+      <c r="I153" t="s">
         <v>23</v>
       </c>
-      <c r="I153">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>310</v>
       </c>
@@ -6700,14 +6701,14 @@
       <c r="G154" t="s">
         <v>312</v>
       </c>
-      <c r="H154" t="s">
-        <v>11</v>
-      </c>
-      <c r="I154">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H154">
+        <v>2023</v>
+      </c>
+      <c r="I154" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>19</v>
       </c>
@@ -6729,14 +6730,14 @@
       <c r="G155" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H155" t="s">
+      <c r="H155">
+        <v>2023</v>
+      </c>
+      <c r="I155" t="s">
         <v>23</v>
       </c>
-      <c r="I155">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>316</v>
       </c>
@@ -6758,14 +6759,14 @@
       <c r="G156" t="s">
         <v>318</v>
       </c>
-      <c r="H156" t="s">
-        <v>11</v>
-      </c>
-      <c r="I156">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H156">
+        <v>2023</v>
+      </c>
+      <c r="I156" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>319</v>
       </c>
@@ -6787,14 +6788,14 @@
       <c r="G157" t="s">
         <v>321</v>
       </c>
-      <c r="H157" t="s">
-        <v>11</v>
-      </c>
-      <c r="I157">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H157">
+        <v>2023</v>
+      </c>
+      <c r="I157" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>323</v>
       </c>
@@ -6816,14 +6817,14 @@
       <c r="G158" t="s">
         <v>325</v>
       </c>
-      <c r="H158" t="s">
-        <v>11</v>
-      </c>
-      <c r="I158">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H158">
+        <v>2023</v>
+      </c>
+      <c r="I158" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>326</v>
       </c>
@@ -6845,14 +6846,14 @@
       <c r="G159" t="s">
         <v>51</v>
       </c>
-      <c r="H159" t="s">
+      <c r="H159">
+        <v>2023</v>
+      </c>
+      <c r="I159" t="s">
         <v>23</v>
       </c>
-      <c r="I159">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>329</v>
       </c>
@@ -6874,14 +6875,14 @@
       <c r="G160" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H160" t="s">
-        <v>11</v>
-      </c>
-      <c r="I160">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H160">
+        <v>2023</v>
+      </c>
+      <c r="I160" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>332</v>
       </c>
@@ -6903,14 +6904,14 @@
       <c r="G161" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H161" t="s">
-        <v>11</v>
-      </c>
-      <c r="I161">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H161">
+        <v>2023</v>
+      </c>
+      <c r="I161" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>332</v>
       </c>
@@ -6932,14 +6933,14 @@
       <c r="G162" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H162" t="s">
-        <v>11</v>
-      </c>
-      <c r="I162">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H162">
+        <v>2023</v>
+      </c>
+      <c r="I162" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>316</v>
       </c>
@@ -6961,14 +6962,14 @@
       <c r="G163" t="s">
         <v>318</v>
       </c>
-      <c r="H163" t="s">
-        <v>11</v>
-      </c>
-      <c r="I163">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H163">
+        <v>2023</v>
+      </c>
+      <c r="I163" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>332</v>
       </c>
@@ -6990,14 +6991,14 @@
       <c r="G164" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H164" t="s">
-        <v>11</v>
-      </c>
-      <c r="I164">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H164">
+        <v>2023</v>
+      </c>
+      <c r="I164" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>302</v>
       </c>
@@ -7019,14 +7020,14 @@
       <c r="G165" t="s">
         <v>43</v>
       </c>
-      <c r="H165" t="s">
+      <c r="H165">
+        <v>2023</v>
+      </c>
+      <c r="I165" t="s">
         <v>23</v>
       </c>
-      <c r="I165">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>340</v>
       </c>
@@ -7048,14 +7049,14 @@
       <c r="G166" t="s">
         <v>43</v>
       </c>
-      <c r="H166" t="s">
-        <v>11</v>
-      </c>
-      <c r="I166">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H166">
+        <v>2023</v>
+      </c>
+      <c r="I166" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>342</v>
       </c>
@@ -7077,14 +7078,14 @@
       <c r="G167" t="s">
         <v>73</v>
       </c>
-      <c r="H167" t="s">
+      <c r="H167">
+        <v>2023</v>
+      </c>
+      <c r="I167" t="s">
         <v>23</v>
       </c>
-      <c r="I167">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>340</v>
       </c>
@@ -7106,14 +7107,14 @@
       <c r="G168" t="s">
         <v>43</v>
       </c>
-      <c r="H168" t="s">
-        <v>11</v>
-      </c>
-      <c r="I168">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H168">
+        <v>2023</v>
+      </c>
+      <c r="I168" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>345</v>
       </c>
@@ -7135,14 +7136,14 @@
       <c r="G169" t="s">
         <v>31</v>
       </c>
-      <c r="H169" t="s">
+      <c r="H169">
+        <v>2023</v>
+      </c>
+      <c r="I169" t="s">
         <v>23</v>
       </c>
-      <c r="I169">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>340</v>
       </c>
@@ -7164,14 +7165,14 @@
       <c r="G170" t="s">
         <v>43</v>
       </c>
-      <c r="H170" t="s">
-        <v>11</v>
-      </c>
-      <c r="I170">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H170">
+        <v>2023</v>
+      </c>
+      <c r="I170" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>342</v>
       </c>
@@ -7193,14 +7194,14 @@
       <c r="G171" t="s">
         <v>73</v>
       </c>
-      <c r="H171" t="s">
-        <v>11</v>
-      </c>
-      <c r="I171">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H171">
+        <v>2023</v>
+      </c>
+      <c r="I171" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>340</v>
       </c>
@@ -7222,14 +7223,14 @@
       <c r="G172" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H172" t="s">
-        <v>11</v>
-      </c>
-      <c r="I172">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H172">
+        <v>2023</v>
+      </c>
+      <c r="I172" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>340</v>
       </c>
@@ -7251,14 +7252,14 @@
       <c r="G173" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H173" t="s">
-        <v>11</v>
-      </c>
-      <c r="I173">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H173">
+        <v>2023</v>
+      </c>
+      <c r="I173" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>146</v>
       </c>
@@ -7280,14 +7281,14 @@
       <c r="G174" t="s">
         <v>149</v>
       </c>
-      <c r="H174" t="s">
+      <c r="H174">
+        <v>2023</v>
+      </c>
+      <c r="I174" t="s">
         <v>23</v>
       </c>
-      <c r="I174">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>340</v>
       </c>
@@ -7309,14 +7310,14 @@
       <c r="G175" t="s">
         <v>43</v>
       </c>
-      <c r="H175" t="s">
-        <v>11</v>
-      </c>
-      <c r="I175">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H175">
+        <v>2023</v>
+      </c>
+      <c r="I175" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>342</v>
       </c>
@@ -7338,14 +7339,14 @@
       <c r="G176" t="s">
         <v>73</v>
       </c>
-      <c r="H176" t="s">
+      <c r="H176">
+        <v>2023</v>
+      </c>
+      <c r="I176" t="s">
         <v>23</v>
       </c>
-      <c r="I176">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>356</v>
       </c>
@@ -7367,14 +7368,14 @@
       <c r="G177" t="s">
         <v>358</v>
       </c>
-      <c r="H177" t="s">
-        <v>11</v>
-      </c>
-      <c r="I177">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H177">
+        <v>2023</v>
+      </c>
+      <c r="I177" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>359</v>
       </c>
@@ -7396,14 +7397,14 @@
       <c r="G178" t="s">
         <v>206</v>
       </c>
-      <c r="H178" t="s">
+      <c r="H178">
+        <v>2023</v>
+      </c>
+      <c r="I178" t="s">
         <v>23</v>
       </c>
-      <c r="I178">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>361</v>
       </c>
@@ -7425,14 +7426,14 @@
       <c r="G179" t="s">
         <v>31</v>
       </c>
-      <c r="H179" t="s">
+      <c r="H179">
+        <v>2023</v>
+      </c>
+      <c r="I179" t="s">
         <v>23</v>
       </c>
-      <c r="I179">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>361</v>
       </c>
@@ -7454,14 +7455,14 @@
       <c r="G180" t="s">
         <v>31</v>
       </c>
-      <c r="H180" t="s">
+      <c r="H180">
+        <v>2023</v>
+      </c>
+      <c r="I180" t="s">
         <v>23</v>
       </c>
-      <c r="I180">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>306</v>
       </c>
@@ -7483,14 +7484,14 @@
       <c r="G181" t="s">
         <v>365</v>
       </c>
-      <c r="H181" t="s">
-        <v>11</v>
-      </c>
-      <c r="I181">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H181">
+        <v>2023</v>
+      </c>
+      <c r="I181" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>361</v>
       </c>
@@ -7512,14 +7513,14 @@
       <c r="G182" t="s">
         <v>31</v>
       </c>
-      <c r="H182" t="s">
+      <c r="H182">
+        <v>2023</v>
+      </c>
+      <c r="I182" t="s">
         <v>23</v>
       </c>
-      <c r="I182">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>19</v>
       </c>
@@ -7541,14 +7542,14 @@
       <c r="G183" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H183" t="s">
-        <v>11</v>
-      </c>
-      <c r="I183">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H183">
+        <v>2023</v>
+      </c>
+      <c r="I183" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>369</v>
       </c>
@@ -7570,14 +7571,14 @@
       <c r="G184" t="s">
         <v>43</v>
       </c>
-      <c r="H184" t="s">
+      <c r="H184">
+        <v>2023</v>
+      </c>
+      <c r="I184" t="s">
         <v>23</v>
       </c>
-      <c r="I184">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>369</v>
       </c>
@@ -7599,14 +7600,14 @@
       <c r="G185" t="s">
         <v>43</v>
       </c>
-      <c r="H185" t="s">
+      <c r="H185">
+        <v>2023</v>
+      </c>
+      <c r="I185" t="s">
         <v>23</v>
       </c>
-      <c r="I185">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>165</v>
       </c>
@@ -7628,14 +7629,14 @@
       <c r="G186" t="s">
         <v>43</v>
       </c>
-      <c r="H186" t="s">
-        <v>11</v>
-      </c>
-      <c r="I186">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H186">
+        <v>2023</v>
+      </c>
+      <c r="I186" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>373</v>
       </c>
@@ -7657,14 +7658,14 @@
       <c r="G187" t="s">
         <v>375</v>
       </c>
-      <c r="H187" t="s">
-        <v>11</v>
-      </c>
-      <c r="I187">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H187">
+        <v>2023</v>
+      </c>
+      <c r="I187" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>245</v>
       </c>
@@ -7686,14 +7687,14 @@
       <c r="G188" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H188" t="s">
-        <v>11</v>
-      </c>
-      <c r="I188">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H188">
+        <v>2023</v>
+      </c>
+      <c r="I188" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>326</v>
       </c>
@@ -7715,14 +7716,14 @@
       <c r="G189" t="s">
         <v>31</v>
       </c>
-      <c r="H189" t="s">
+      <c r="H189">
+        <v>2023</v>
+      </c>
+      <c r="I189" t="s">
         <v>23</v>
       </c>
-      <c r="I189">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>326</v>
       </c>
@@ -7744,14 +7745,14 @@
       <c r="G190" t="s">
         <v>51</v>
       </c>
-      <c r="H190" t="s">
+      <c r="H190">
+        <v>2023</v>
+      </c>
+      <c r="I190" t="s">
         <v>23</v>
       </c>
-      <c r="I190">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>298</v>
       </c>
@@ -7773,14 +7774,14 @@
       <c r="G191" t="s">
         <v>51</v>
       </c>
-      <c r="H191" t="s">
+      <c r="H191">
+        <v>2023</v>
+      </c>
+      <c r="I191" t="s">
         <v>23</v>
       </c>
-      <c r="I191">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>295</v>
       </c>
@@ -7802,14 +7803,14 @@
       <c r="G192" t="s">
         <v>297</v>
       </c>
-      <c r="H192" t="s">
-        <v>11</v>
-      </c>
-      <c r="I192">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H192">
+        <v>2023</v>
+      </c>
+      <c r="I192" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>382</v>
       </c>
@@ -7831,14 +7832,14 @@
       <c r="G193" t="s">
         <v>384</v>
       </c>
-      <c r="H193" t="s">
-        <v>11</v>
-      </c>
-      <c r="I193">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H193">
+        <v>2023</v>
+      </c>
+      <c r="I193" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>382</v>
       </c>
@@ -7860,14 +7861,14 @@
       <c r="G194" t="s">
         <v>201</v>
       </c>
-      <c r="H194" t="s">
-        <v>11</v>
-      </c>
-      <c r="I194">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H194">
+        <v>2023</v>
+      </c>
+      <c r="I194" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>386</v>
       </c>
@@ -7889,14 +7890,14 @@
       <c r="G195" t="s">
         <v>31</v>
       </c>
-      <c r="H195" t="s">
-        <v>11</v>
-      </c>
-      <c r="I195">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H195">
+        <v>2023</v>
+      </c>
+      <c r="I195" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>212</v>
       </c>
@@ -7918,14 +7919,14 @@
       <c r="G196" t="s">
         <v>31</v>
       </c>
-      <c r="H196" t="s">
+      <c r="H196">
+        <v>2023</v>
+      </c>
+      <c r="I196" t="s">
         <v>23</v>
       </c>
-      <c r="I196">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>212</v>
       </c>
@@ -7947,14 +7948,14 @@
       <c r="G197" t="s">
         <v>31</v>
       </c>
-      <c r="H197" t="s">
+      <c r="H197">
+        <v>2023</v>
+      </c>
+      <c r="I197" t="s">
         <v>23</v>
       </c>
-      <c r="I197">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>323</v>
       </c>
@@ -7976,14 +7977,14 @@
       <c r="G198" t="s">
         <v>325</v>
       </c>
-      <c r="H198" t="s">
-        <v>11</v>
-      </c>
-      <c r="I198">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H198">
+        <v>2023</v>
+      </c>
+      <c r="I198" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>212</v>
       </c>
@@ -8005,14 +8006,14 @@
       <c r="G199" t="s">
         <v>31</v>
       </c>
-      <c r="H199" t="s">
+      <c r="H199">
+        <v>2023</v>
+      </c>
+      <c r="I199" t="s">
         <v>23</v>
       </c>
-      <c r="I199">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>342</v>
       </c>
@@ -8034,14 +8035,14 @@
       <c r="G200" t="s">
         <v>73</v>
       </c>
-      <c r="H200" t="s">
-        <v>11</v>
-      </c>
-      <c r="I200">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H200">
+        <v>2023</v>
+      </c>
+      <c r="I200" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>369</v>
       </c>
@@ -8063,14 +8064,14 @@
       <c r="G201" t="s">
         <v>43</v>
       </c>
-      <c r="H201" t="s">
+      <c r="H201">
+        <v>2023</v>
+      </c>
+      <c r="I201" t="s">
         <v>23</v>
       </c>
-      <c r="I201">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>298</v>
       </c>
@@ -8092,14 +8093,14 @@
       <c r="G202" t="s">
         <v>31</v>
       </c>
-      <c r="H202" t="s">
+      <c r="H202">
+        <v>2023</v>
+      </c>
+      <c r="I202" t="s">
         <v>23</v>
       </c>
-      <c r="I202">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>395</v>
       </c>
@@ -8121,14 +8122,14 @@
       <c r="G203" t="s">
         <v>43</v>
       </c>
-      <c r="H203" t="s">
-        <v>11</v>
-      </c>
-      <c r="I203">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H203">
+        <v>2023</v>
+      </c>
+      <c r="I203" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>397</v>
       </c>
@@ -8150,14 +8151,14 @@
       <c r="G204" t="s">
         <v>51</v>
       </c>
-      <c r="H204" t="s">
-        <v>11</v>
-      </c>
-      <c r="I204">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H204">
+        <v>2023</v>
+      </c>
+      <c r="I204" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>399</v>
       </c>
@@ -8179,14 +8180,14 @@
       <c r="G205" t="s">
         <v>137</v>
       </c>
-      <c r="H205" t="s">
-        <v>11</v>
-      </c>
-      <c r="I205">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H205">
+        <v>2023</v>
+      </c>
+      <c r="I205" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>401</v>
       </c>
@@ -8208,14 +8209,14 @@
       <c r="G206" t="s">
         <v>403</v>
       </c>
-      <c r="H206" t="s">
-        <v>11</v>
-      </c>
-      <c r="I206">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H206">
+        <v>2023</v>
+      </c>
+      <c r="I206" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>404</v>
       </c>
@@ -8237,14 +8238,14 @@
       <c r="G207" t="s">
         <v>43</v>
       </c>
-      <c r="H207" t="s">
-        <v>11</v>
-      </c>
-      <c r="I207">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H207">
+        <v>2023</v>
+      </c>
+      <c r="I207" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>369</v>
       </c>
@@ -8266,14 +8267,14 @@
       <c r="G208" t="s">
         <v>43</v>
       </c>
-      <c r="H208" t="s">
+      <c r="H208">
+        <v>2023</v>
+      </c>
+      <c r="I208" t="s">
         <v>23</v>
       </c>
-      <c r="I208">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>306</v>
       </c>
@@ -8295,14 +8296,14 @@
       <c r="G209" t="s">
         <v>308</v>
       </c>
-      <c r="H209" t="s">
-        <v>11</v>
-      </c>
-      <c r="I209">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H209">
+        <v>2023</v>
+      </c>
+      <c r="I209" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>289</v>
       </c>
@@ -8324,14 +8325,14 @@
       <c r="G210" t="s">
         <v>51</v>
       </c>
-      <c r="H210" t="s">
-        <v>11</v>
-      </c>
-      <c r="I210">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H210">
+        <v>2023</v>
+      </c>
+      <c r="I210" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>329</v>
       </c>
@@ -8353,14 +8354,14 @@
       <c r="G211" t="s">
         <v>410</v>
       </c>
-      <c r="H211" t="s">
+      <c r="H211">
+        <v>2023</v>
+      </c>
+      <c r="I211" t="s">
         <v>23</v>
       </c>
-      <c r="I211">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>289</v>
       </c>
@@ -8382,14 +8383,14 @@
       <c r="G212" t="s">
         <v>51</v>
       </c>
-      <c r="H212" t="s">
-        <v>11</v>
-      </c>
-      <c r="I212">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H212">
+        <v>2023</v>
+      </c>
+      <c r="I212" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>412</v>
       </c>
@@ -8411,14 +8412,14 @@
       <c r="G213" t="s">
         <v>71</v>
       </c>
-      <c r="H213" t="s">
-        <v>11</v>
-      </c>
-      <c r="I213">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H213">
+        <v>2023</v>
+      </c>
+      <c r="I213" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>412</v>
       </c>
@@ -8440,14 +8441,14 @@
       <c r="G214" t="s">
         <v>71</v>
       </c>
-      <c r="H214" t="s">
-        <v>11</v>
-      </c>
-      <c r="I214">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H214">
+        <v>2023</v>
+      </c>
+      <c r="I214" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>415</v>
       </c>
@@ -8469,14 +8470,14 @@
       <c r="G215" t="s">
         <v>43</v>
       </c>
-      <c r="H215" t="s">
+      <c r="H215">
+        <v>2023</v>
+      </c>
+      <c r="I215" t="s">
         <v>23</v>
       </c>
-      <c r="I215">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>310</v>
       </c>
@@ -8498,14 +8499,14 @@
       <c r="G216" t="s">
         <v>312</v>
       </c>
-      <c r="H216" t="s">
-        <v>11</v>
-      </c>
-      <c r="I216">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H216">
+        <v>2023</v>
+      </c>
+      <c r="I216" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>397</v>
       </c>
@@ -8527,14 +8528,14 @@
       <c r="G217" t="s">
         <v>51</v>
       </c>
-      <c r="H217" t="s">
-        <v>11</v>
-      </c>
-      <c r="I217">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H217">
+        <v>2023</v>
+      </c>
+      <c r="I217" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>326</v>
       </c>
@@ -8556,14 +8557,14 @@
       <c r="G218" t="s">
         <v>43</v>
       </c>
-      <c r="H218" t="s">
+      <c r="H218">
+        <v>2023</v>
+      </c>
+      <c r="I218" t="s">
         <v>23</v>
       </c>
-      <c r="I218">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>19</v>
       </c>
@@ -8585,14 +8586,14 @@
       <c r="G219" t="s">
         <v>201</v>
       </c>
-      <c r="H219" t="s">
-        <v>11</v>
-      </c>
-      <c r="I219">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H219">
+        <v>2023</v>
+      </c>
+      <c r="I219" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>326</v>
       </c>
@@ -8614,14 +8615,14 @@
       <c r="G220" t="s">
         <v>43</v>
       </c>
-      <c r="H220" t="s">
+      <c r="H220">
+        <v>2023</v>
+      </c>
+      <c r="I220" t="s">
         <v>23</v>
       </c>
-      <c r="I220">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>422</v>
       </c>
@@ -8643,14 +8644,14 @@
       <c r="G221" t="s">
         <v>424</v>
       </c>
-      <c r="H221" t="s">
-        <v>11</v>
-      </c>
-      <c r="I221">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H221">
+        <v>2023</v>
+      </c>
+      <c r="I221" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>425</v>
       </c>
@@ -8672,14 +8673,14 @@
       <c r="G222" t="s">
         <v>427</v>
       </c>
-      <c r="H222" t="s">
+      <c r="H222">
+        <v>2023</v>
+      </c>
+      <c r="I222" t="s">
         <v>23</v>
       </c>
-      <c r="I222">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>326</v>
       </c>
@@ -8701,14 +8702,14 @@
       <c r="G223" t="s">
         <v>43</v>
       </c>
-      <c r="H223" t="s">
+      <c r="H223">
+        <v>2023</v>
+      </c>
+      <c r="I223" t="s">
         <v>23</v>
       </c>
-      <c r="I223">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>345</v>
       </c>
@@ -8730,14 +8731,14 @@
       <c r="G224" t="s">
         <v>31</v>
       </c>
-      <c r="H224" t="s">
+      <c r="H224">
+        <v>2023</v>
+      </c>
+      <c r="I224" t="s">
         <v>23</v>
       </c>
-      <c r="I224">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>422</v>
       </c>
@@ -8759,14 +8760,14 @@
       <c r="G225" t="s">
         <v>424</v>
       </c>
-      <c r="H225" t="s">
-        <v>11</v>
-      </c>
-      <c r="I225">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H225">
+        <v>2023</v>
+      </c>
+      <c r="I225" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>302</v>
       </c>
@@ -8788,14 +8789,14 @@
       <c r="G226" t="s">
         <v>43</v>
       </c>
-      <c r="H226" t="s">
+      <c r="H226">
+        <v>2023</v>
+      </c>
+      <c r="I226" t="s">
         <v>23</v>
       </c>
-      <c r="I226">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>143</v>
       </c>
@@ -8817,14 +8818,14 @@
       <c r="G227" t="s">
         <v>145</v>
       </c>
-      <c r="H227" t="s">
-        <v>11</v>
-      </c>
-      <c r="I227">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H227">
+        <v>2023</v>
+      </c>
+      <c r="I227" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>106</v>
       </c>
@@ -8846,14 +8847,14 @@
       <c r="G228" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H228" t="s">
+      <c r="H228">
+        <v>2023</v>
+      </c>
+      <c r="I228" t="s">
         <v>23</v>
       </c>
-      <c r="I228">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>435</v>
       </c>
@@ -8875,14 +8876,14 @@
       <c r="G229" t="s">
         <v>31</v>
       </c>
-      <c r="H229" t="s">
-        <v>11</v>
-      </c>
-      <c r="I229">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H229">
+        <v>2023</v>
+      </c>
+      <c r="I229" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>435</v>
       </c>
@@ -8904,14 +8905,14 @@
       <c r="G230" t="s">
         <v>31</v>
       </c>
-      <c r="H230" t="s">
-        <v>11</v>
-      </c>
-      <c r="I230">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H230">
+        <v>2023</v>
+      </c>
+      <c r="I230" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>310</v>
       </c>
@@ -8933,14 +8934,14 @@
       <c r="G231" t="s">
         <v>312</v>
       </c>
-      <c r="H231" t="s">
-        <v>11</v>
-      </c>
-      <c r="I231">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H231">
+        <v>2023</v>
+      </c>
+      <c r="I231" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>217</v>
       </c>
@@ -8962,14 +8963,14 @@
       <c r="G232" t="s">
         <v>43</v>
       </c>
-      <c r="H232" t="s">
+      <c r="H232">
+        <v>2023</v>
+      </c>
+      <c r="I232" t="s">
         <v>23</v>
       </c>
-      <c r="I232">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>440</v>
       </c>
@@ -8991,14 +8992,14 @@
       <c r="G233" t="s">
         <v>51</v>
       </c>
-      <c r="H233" t="s">
+      <c r="H233">
+        <v>2023</v>
+      </c>
+      <c r="I233" t="s">
         <v>23</v>
       </c>
-      <c r="I233">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>442</v>
       </c>
@@ -9020,14 +9021,14 @@
       <c r="G234" t="s">
         <v>43</v>
       </c>
-      <c r="H234" t="s">
-        <v>11</v>
-      </c>
-      <c r="I234">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H234">
+        <v>2023</v>
+      </c>
+      <c r="I234" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>445</v>
       </c>
@@ -9049,14 +9050,14 @@
       <c r="G235" t="s">
         <v>447</v>
       </c>
-      <c r="H235" t="s">
+      <c r="H235">
+        <v>2023</v>
+      </c>
+      <c r="I235" t="s">
         <v>23</v>
       </c>
-      <c r="I235">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>448</v>
       </c>
@@ -9078,14 +9079,14 @@
       <c r="G236" t="s">
         <v>450</v>
       </c>
-      <c r="H236" t="s">
+      <c r="H236">
+        <v>2023</v>
+      </c>
+      <c r="I236" t="s">
         <v>23</v>
       </c>
-      <c r="I236">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>451</v>
       </c>
@@ -9107,14 +9108,14 @@
       <c r="G237" t="s">
         <v>43</v>
       </c>
-      <c r="H237" t="s">
-        <v>11</v>
-      </c>
-      <c r="I237">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H237">
+        <v>2023</v>
+      </c>
+      <c r="I237" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>316</v>
       </c>
@@ -9136,14 +9137,14 @@
       <c r="G238" t="s">
         <v>201</v>
       </c>
-      <c r="H238" t="s">
+      <c r="H238">
+        <v>2023</v>
+      </c>
+      <c r="I238" t="s">
         <v>23</v>
       </c>
-      <c r="I238">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>451</v>
       </c>
@@ -9165,14 +9166,14 @@
       <c r="G239" t="s">
         <v>31</v>
       </c>
-      <c r="H239" t="s">
-        <v>11</v>
-      </c>
-      <c r="I239">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H239">
+        <v>2023</v>
+      </c>
+      <c r="I239" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>263</v>
       </c>
@@ -9194,14 +9195,14 @@
       <c r="G240" t="s">
         <v>26</v>
       </c>
-      <c r="H240" t="s">
+      <c r="H240">
+        <v>2023</v>
+      </c>
+      <c r="I240" t="s">
         <v>23</v>
       </c>
-      <c r="I240">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>456</v>
       </c>
@@ -9223,14 +9224,14 @@
       <c r="G241" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H241" t="s">
-        <v>11</v>
-      </c>
-      <c r="I241">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H241">
+        <v>2023</v>
+      </c>
+      <c r="I241" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>458</v>
       </c>
@@ -9252,14 +9253,14 @@
       <c r="G242" t="s">
         <v>43</v>
       </c>
-      <c r="H242" t="s">
+      <c r="H242">
+        <v>2023</v>
+      </c>
+      <c r="I242" t="s">
         <v>23</v>
       </c>
-      <c r="I242">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>456</v>
       </c>
@@ -9281,14 +9282,14 @@
       <c r="G243" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H243" t="s">
-        <v>11</v>
-      </c>
-      <c r="I243">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H243">
+        <v>2023</v>
+      </c>
+      <c r="I243" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>456</v>
       </c>
@@ -9310,14 +9311,14 @@
       <c r="G244" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H244" t="s">
-        <v>11</v>
-      </c>
-      <c r="I244">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H244">
+        <v>2023</v>
+      </c>
+      <c r="I244" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>456</v>
       </c>
@@ -9339,14 +9340,14 @@
       <c r="G245" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H245" t="s">
-        <v>11</v>
-      </c>
-      <c r="I245">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H245">
+        <v>2023</v>
+      </c>
+      <c r="I245" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>456</v>
       </c>
@@ -9368,14 +9369,14 @@
       <c r="G246" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H246" t="s">
-        <v>11</v>
-      </c>
-      <c r="I246">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H246">
+        <v>2023</v>
+      </c>
+      <c r="I246" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>458</v>
       </c>
@@ -9397,14 +9398,14 @@
       <c r="G247" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H247" t="s">
-        <v>11</v>
-      </c>
-      <c r="I247">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H247">
+        <v>2023</v>
+      </c>
+      <c r="I247" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>369</v>
       </c>
@@ -9426,14 +9427,14 @@
       <c r="G248" t="s">
         <v>43</v>
       </c>
-      <c r="H248" t="s">
+      <c r="H248">
+        <v>2023</v>
+      </c>
+      <c r="I248" t="s">
         <v>23</v>
       </c>
-      <c r="I248">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>106</v>
       </c>
@@ -9455,14 +9456,14 @@
       <c r="G249" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H249" t="s">
-        <v>11</v>
-      </c>
-      <c r="I249">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H249">
+        <v>2023</v>
+      </c>
+      <c r="I249" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>106</v>
       </c>
@@ -9484,14 +9485,14 @@
       <c r="G250" t="s">
         <v>98</v>
       </c>
-      <c r="H250" t="s">
-        <v>11</v>
-      </c>
-      <c r="I250">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H250">
+        <v>2023</v>
+      </c>
+      <c r="I250" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>474</v>
       </c>
@@ -9513,14 +9514,14 @@
       <c r="G251" t="s">
         <v>188</v>
       </c>
-      <c r="H251" t="s">
+      <c r="H251">
+        <v>2023</v>
+      </c>
+      <c r="I251" t="s">
         <v>23</v>
       </c>
-      <c r="I251">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>212</v>
       </c>
@@ -9542,14 +9543,14 @@
       <c r="G252" t="s">
         <v>31</v>
       </c>
-      <c r="H252" t="s">
+      <c r="H252">
+        <v>2023</v>
+      </c>
+      <c r="I252" t="s">
         <v>23</v>
       </c>
-      <c r="I252">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>186</v>
       </c>
@@ -9571,14 +9572,14 @@
       <c r="G253" t="s">
         <v>188</v>
       </c>
-      <c r="H253" t="s">
-        <v>11</v>
-      </c>
-      <c r="I253">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H253">
+        <v>2023</v>
+      </c>
+      <c r="I253" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>186</v>
       </c>
@@ -9600,14 +9601,14 @@
       <c r="G254" t="s">
         <v>188</v>
       </c>
-      <c r="H254" t="s">
+      <c r="H254">
+        <v>2023</v>
+      </c>
+      <c r="I254" t="s">
         <v>23</v>
       </c>
-      <c r="I254">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>458</v>
       </c>
@@ -9629,14 +9630,14 @@
       <c r="G255" t="s">
         <v>43</v>
       </c>
-      <c r="H255" t="s">
+      <c r="H255">
+        <v>2023</v>
+      </c>
+      <c r="I255" t="s">
         <v>23</v>
       </c>
-      <c r="I255">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>329</v>
       </c>
@@ -9658,14 +9659,14 @@
       <c r="G256" t="s">
         <v>83</v>
       </c>
-      <c r="H256" t="s">
+      <c r="H256">
+        <v>2023</v>
+      </c>
+      <c r="I256" t="s">
         <v>23</v>
       </c>
-      <c r="I256">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>458</v>
       </c>
@@ -9687,14 +9688,14 @@
       <c r="G257" t="s">
         <v>43</v>
       </c>
-      <c r="H257" t="s">
+      <c r="H257">
+        <v>2023</v>
+      </c>
+      <c r="I257" t="s">
         <v>23</v>
       </c>
-      <c r="I257">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>483</v>
       </c>
@@ -9716,14 +9717,14 @@
       <c r="G258" t="s">
         <v>71</v>
       </c>
-      <c r="H258" t="s">
-        <v>11</v>
-      </c>
-      <c r="I258">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H258">
+        <v>2023</v>
+      </c>
+      <c r="I258" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>485</v>
       </c>
@@ -9745,14 +9746,14 @@
       <c r="G259" t="s">
         <v>188</v>
       </c>
-      <c r="H259" t="s">
-        <v>11</v>
-      </c>
-      <c r="I259">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H259">
+        <v>2023</v>
+      </c>
+      <c r="I259" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>485</v>
       </c>
@@ -9774,14 +9775,14 @@
       <c r="G260" t="s">
         <v>188</v>
       </c>
-      <c r="H260" t="s">
-        <v>11</v>
-      </c>
-      <c r="I260">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H260">
+        <v>2023</v>
+      </c>
+      <c r="I260" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>485</v>
       </c>
@@ -9803,14 +9804,14 @@
       <c r="G261" t="s">
         <v>188</v>
       </c>
-      <c r="H261" t="s">
-        <v>11</v>
-      </c>
-      <c r="I261">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H261">
+        <v>2023</v>
+      </c>
+      <c r="I261" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>485</v>
       </c>
@@ -9832,14 +9833,14 @@
       <c r="G262" t="s">
         <v>188</v>
       </c>
-      <c r="H262" t="s">
-        <v>11</v>
-      </c>
-      <c r="I262">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H262">
+        <v>2023</v>
+      </c>
+      <c r="I262" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>485</v>
       </c>
@@ -9861,14 +9862,14 @@
       <c r="G263" t="s">
         <v>188</v>
       </c>
-      <c r="H263" t="s">
-        <v>11</v>
-      </c>
-      <c r="I263">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H263">
+        <v>2023</v>
+      </c>
+      <c r="I263" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>186</v>
       </c>
@@ -9890,14 +9891,14 @@
       <c r="G264" t="s">
         <v>188</v>
       </c>
-      <c r="H264" t="s">
-        <v>11</v>
-      </c>
-      <c r="I264">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H264">
+        <v>2023</v>
+      </c>
+      <c r="I264" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>186</v>
       </c>
@@ -9919,14 +9920,14 @@
       <c r="G265" t="s">
         <v>188</v>
       </c>
-      <c r="H265" t="s">
-        <v>11</v>
-      </c>
-      <c r="I265">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H265">
+        <v>2023</v>
+      </c>
+      <c r="I265" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>397</v>
       </c>
@@ -9948,14 +9949,14 @@
       <c r="G266" t="s">
         <v>51</v>
       </c>
-      <c r="H266" t="s">
-        <v>11</v>
-      </c>
-      <c r="I266">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H266">
+        <v>2023</v>
+      </c>
+      <c r="I266" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>494</v>
       </c>
@@ -9977,14 +9978,14 @@
       <c r="G267" t="s">
         <v>51</v>
       </c>
-      <c r="H267" t="s">
-        <v>11</v>
-      </c>
-      <c r="I267">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H267">
+        <v>2023</v>
+      </c>
+      <c r="I267" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>496</v>
       </c>
@@ -10006,14 +10007,14 @@
       <c r="G268" t="s">
         <v>71</v>
       </c>
-      <c r="H268" t="s">
-        <v>11</v>
-      </c>
-      <c r="I268">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H268">
+        <v>2023</v>
+      </c>
+      <c r="I268" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>496</v>
       </c>
@@ -10035,14 +10036,14 @@
       <c r="G269" t="s">
         <v>71</v>
       </c>
-      <c r="H269" t="s">
-        <v>11</v>
-      </c>
-      <c r="I269">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H269">
+        <v>2023</v>
+      </c>
+      <c r="I269" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>397</v>
       </c>
@@ -10064,14 +10065,14 @@
       <c r="G270" t="s">
         <v>51</v>
       </c>
-      <c r="H270" t="s">
-        <v>11</v>
-      </c>
-      <c r="I270">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H270">
+        <v>2023</v>
+      </c>
+      <c r="I270" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>500</v>
       </c>
@@ -10093,14 +10094,14 @@
       <c r="G271" t="s">
         <v>43</v>
       </c>
-      <c r="H271" t="s">
+      <c r="H271">
+        <v>2023</v>
+      </c>
+      <c r="I271" t="s">
         <v>23</v>
       </c>
-      <c r="I271">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>500</v>
       </c>
@@ -10122,14 +10123,14 @@
       <c r="G272" t="s">
         <v>43</v>
       </c>
-      <c r="H272" t="s">
+      <c r="H272">
+        <v>2023</v>
+      </c>
+      <c r="I272" t="s">
         <v>23</v>
       </c>
-      <c r="I272">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>500</v>
       </c>
@@ -10151,14 +10152,14 @@
       <c r="G273" t="s">
         <v>43</v>
       </c>
-      <c r="H273" t="s">
+      <c r="H273">
+        <v>2023</v>
+      </c>
+      <c r="I273" t="s">
         <v>23</v>
       </c>
-      <c r="I273">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>500</v>
       </c>
@@ -10180,14 +10181,14 @@
       <c r="G274" t="s">
         <v>43</v>
       </c>
-      <c r="H274" t="s">
+      <c r="H274">
+        <v>2023</v>
+      </c>
+      <c r="I274" t="s">
         <v>23</v>
       </c>
-      <c r="I274">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>505</v>
       </c>
@@ -10209,14 +10210,14 @@
       <c r="G275" t="s">
         <v>43</v>
       </c>
-      <c r="H275" t="s">
-        <v>11</v>
-      </c>
-      <c r="I275">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H275">
+        <v>2023</v>
+      </c>
+      <c r="I275" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>19</v>
       </c>
@@ -10238,14 +10239,14 @@
       <c r="G276" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H276" t="s">
+      <c r="H276">
+        <v>2023</v>
+      </c>
+      <c r="I276" t="s">
         <v>23</v>
       </c>
-      <c r="I276">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>19</v>
       </c>
@@ -10267,14 +10268,14 @@
       <c r="G277" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H277" t="s">
+      <c r="H277">
+        <v>2023</v>
+      </c>
+      <c r="I277" t="s">
         <v>23</v>
       </c>
-      <c r="I277">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>511</v>
       </c>
@@ -10296,14 +10297,14 @@
       <c r="G278" t="s">
         <v>513</v>
       </c>
-      <c r="H278" t="s">
-        <v>11</v>
-      </c>
-      <c r="I278">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H278">
+        <v>2023</v>
+      </c>
+      <c r="I278" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>515</v>
       </c>
@@ -10325,14 +10326,14 @@
       <c r="G279" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H279" t="s">
+      <c r="H279">
+        <v>2023</v>
+      </c>
+      <c r="I279" t="s">
         <v>23</v>
       </c>
-      <c r="I279">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>517</v>
       </c>
@@ -10354,14 +10355,14 @@
       <c r="G280" t="s">
         <v>43</v>
       </c>
-      <c r="H280" t="s">
+      <c r="H280">
+        <v>2023</v>
+      </c>
+      <c r="I280" t="s">
         <v>23</v>
       </c>
-      <c r="I280">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>519</v>
       </c>
@@ -10383,11 +10384,11 @@
       <c r="G281" t="s">
         <v>17</v>
       </c>
-      <c r="H281" t="s">
+      <c r="H281">
+        <v>2023</v>
+      </c>
+      <c r="I281" t="s">
         <v>23</v>
-      </c>
-      <c r="I281">
-        <v>2023</v>
       </c>
     </row>
   </sheetData>
@@ -10413,19 +10414,19 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="13.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="13.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="60.1640625" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="60.140625" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10451,7 +10452,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -10477,7 +10478,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -10503,7 +10504,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -10529,7 +10530,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>34</v>
       </c>
@@ -10555,7 +10556,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -10581,7 +10582,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -10607,7 +10608,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>38</v>
       </c>
@@ -10633,7 +10634,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>38</v>
       </c>
@@ -10659,7 +10660,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>38</v>
       </c>
@@ -10685,7 +10686,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>46</v>
       </c>
@@ -10711,7 +10712,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>46</v>
       </c>
@@ -10737,7 +10738,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>46</v>
       </c>
@@ -10763,7 +10764,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>56</v>
       </c>
@@ -10789,7 +10790,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>56</v>
       </c>
@@ -10815,7 +10816,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>56</v>
       </c>
@@ -10841,7 +10842,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>61</v>
       </c>
@@ -10867,7 +10868,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>61</v>
       </c>
@@ -10893,7 +10894,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>61</v>
       </c>
@@ -10919,7 +10920,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>78</v>
       </c>
@@ -10945,7 +10946,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>78</v>
       </c>
@@ -10971,7 +10972,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>84</v>
       </c>
@@ -10997,7 +10998,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>84</v>
       </c>
@@ -11023,7 +11024,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>100</v>
       </c>
@@ -11049,7 +11050,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>100</v>
       </c>
@@ -11075,7 +11076,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>100</v>
       </c>
@@ -11101,7 +11102,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>100</v>
       </c>
@@ -11127,7 +11128,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>103</v>
       </c>
@@ -11153,7 +11154,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>103</v>
       </c>
@@ -11179,7 +11180,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>103</v>
       </c>
@@ -11205,7 +11206,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>103</v>
       </c>
@@ -11231,7 +11232,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>103</v>
       </c>
@@ -11257,7 +11258,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>105</v>
       </c>
@@ -11283,7 +11284,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>105</v>
       </c>
@@ -11309,7 +11310,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>105</v>
       </c>
@@ -11335,7 +11336,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>105</v>
       </c>
@@ -11361,7 +11362,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>116</v>
       </c>
@@ -11387,7 +11388,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>116</v>
       </c>
@@ -11413,7 +11414,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>163</v>
       </c>
@@ -11439,7 +11440,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>163</v>
       </c>
@@ -11465,7 +11466,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>163</v>
       </c>
@@ -11491,7 +11492,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>163</v>
       </c>
@@ -11517,7 +11518,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>180</v>
       </c>
@@ -11543,7 +11544,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>180</v>
       </c>
@@ -11569,7 +11570,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>192</v>
       </c>
@@ -11595,7 +11596,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>192</v>
       </c>
@@ -11621,7 +11622,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>208</v>
       </c>
@@ -11647,7 +11648,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>208</v>
       </c>
@@ -11673,7 +11674,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>208</v>
       </c>
@@ -11699,7 +11700,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>208</v>
       </c>
@@ -11725,7 +11726,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>208</v>
       </c>
@@ -11751,7 +11752,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>244</v>
       </c>
@@ -11777,7 +11778,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>244</v>
       </c>
@@ -11803,7 +11804,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>247</v>
       </c>
@@ -11829,7 +11830,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>247</v>
       </c>
@@ -11855,7 +11856,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>247</v>
       </c>
@@ -11881,7 +11882,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>252</v>
       </c>
@@ -11907,7 +11908,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>252</v>
       </c>
@@ -11933,7 +11934,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>261</v>
       </c>
@@ -11959,7 +11960,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>261</v>
       </c>
@@ -11985,7 +11986,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>281</v>
       </c>
@@ -12011,7 +12012,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>281</v>
       </c>
@@ -12037,7 +12038,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>285</v>
       </c>
@@ -12063,7 +12064,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>285</v>
       </c>
@@ -12089,7 +12090,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>285</v>
       </c>
@@ -12115,7 +12116,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>285</v>
       </c>
@@ -12141,7 +12142,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>285</v>
       </c>
@@ -12167,7 +12168,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>288</v>
       </c>
@@ -12193,7 +12194,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>288</v>
       </c>
@@ -12219,7 +12220,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>288</v>
       </c>
@@ -12245,7 +12246,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>291</v>
       </c>
@@ -12271,7 +12272,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>291</v>
       </c>
@@ -12297,7 +12298,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>291</v>
       </c>
@@ -12323,7 +12324,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>314</v>
       </c>
@@ -12349,7 +12350,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>314</v>
       </c>
@@ -12375,7 +12376,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>314</v>
       </c>
@@ -12401,7 +12402,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>314</v>
       </c>
@@ -12427,7 +12428,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>314</v>
       </c>
@@ -12453,7 +12454,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>328</v>
       </c>
@@ -12479,7 +12480,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>328</v>
       </c>
@@ -12505,7 +12506,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>331</v>
       </c>
@@ -12531,7 +12532,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>331</v>
       </c>
@@ -12557,7 +12558,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>334</v>
       </c>
@@ -12583,7 +12584,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>334</v>
       </c>
@@ -12609,7 +12610,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>337</v>
       </c>
@@ -12635,7 +12636,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>337</v>
       </c>
@@ -12661,7 +12662,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>349</v>
       </c>
@@ -12687,7 +12688,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>349</v>
       </c>
@@ -12713,7 +12714,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>351</v>
       </c>
@@ -12739,7 +12740,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>351</v>
       </c>
@@ -12765,7 +12766,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>367</v>
       </c>
@@ -12791,7 +12792,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>367</v>
       </c>
@@ -12817,7 +12818,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>376</v>
       </c>
@@ -12843,7 +12844,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>376</v>
       </c>
@@ -12869,7 +12870,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>433</v>
       </c>
@@ -12895,7 +12896,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>433</v>
       </c>
@@ -12921,7 +12922,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>433</v>
       </c>
@@ -12947,7 +12948,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>455</v>
       </c>
@@ -12973,7 +12974,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>455</v>
       </c>
@@ -12999,7 +13000,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>460</v>
       </c>
@@ -13025,7 +13026,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>460</v>
       </c>
@@ -13051,7 +13052,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>462</v>
       </c>
@@ -13077,7 +13078,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>462</v>
       </c>
@@ -13103,7 +13104,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>464</v>
       </c>
@@ -13129,7 +13130,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>464</v>
       </c>
@@ -13155,7 +13156,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>466</v>
       </c>
@@ -13181,7 +13182,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>466</v>
       </c>
@@ -13207,7 +13208,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>468</v>
       </c>
@@ -13233,7 +13234,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>468</v>
       </c>
@@ -13259,7 +13260,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>471</v>
       </c>
@@ -13285,7 +13286,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>471</v>
       </c>
@@ -13311,7 +13312,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>471</v>
       </c>
@@ -13337,7 +13338,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>471</v>
       </c>
@@ -13363,7 +13364,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>507</v>
       </c>
@@ -13389,7 +13390,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>507</v>
       </c>
@@ -13415,7 +13416,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>509</v>
       </c>
@@ -13441,7 +13442,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>509</v>
       </c>
@@ -13467,7 +13468,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>514</v>
       </c>
@@ -13493,7 +13494,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>514</v>
       </c>
@@ -13537,153 +13538,153 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>540</v>
       </c>
       <c r="B1" s="3"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="9"/>
       <c r="B2" s="3"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>541</v>
       </c>
       <c r="B3" s="3"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>542</v>
       </c>
       <c r="B4" s="3"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>543</v>
       </c>
       <c r="B5" s="3"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>544</v>
       </c>
       <c r="B6" s="3"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="3"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>545</v>
       </c>
       <c r="B9" s="3"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>546</v>
       </c>
       <c r="B10" s="3"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>547</v>
       </c>
       <c r="B11" s="3"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>548</v>
       </c>
       <c r="B12" s="3"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="12"/>
       <c r="B13" s="3"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>549</v>
       </c>
       <c r="B14" s="3"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>550</v>
       </c>
       <c r="B15" s="3"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="13"/>
       <c r="B16" s="3"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>551</v>
       </c>
       <c r="B17" s="3"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>552</v>
       </c>
       <c r="B18" s="3"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="9"/>
       <c r="B19" s="3"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>3</v>
       </c>
       <c r="B20" s="3"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>553</v>
       </c>
       <c r="B21" s="3"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
         <v>554</v>
       </c>
       <c r="B22" s="3"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
         <v>555</v>
       </c>
       <c r="B23" s="3"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="13"/>
       <c r="B24" s="3"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B25" s="3"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
         <v>556</v>
       </c>
       <c r="B26" s="3"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
     </row>
@@ -13693,6 +13694,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="1e5fb10a-b241-4bce-b11c-4885c5c0965b" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="c0e96fbc-4124-4d47-8aa3-d13bfaf2ab4f">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="dokument" ma:contentTypeID="0x010100597680544D032148A92EB55048E86424" ma:contentTypeVersion="14" ma:contentTypeDescription="Skapa ett nytt dokument." ma:contentTypeScope="" ma:versionID="ca72339ea26b76742186765d80b17844">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c0e96fbc-4124-4d47-8aa3-d13bfaf2ab4f" xmlns:ns3="f040e592-812e-439b-b8a3-d352feacef94" xmlns:ns4="1e5fb10a-b241-4bce-b11c-4885c5c0965b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="96a0bb649494a13b1a20b81e3e1852cd" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="c0e96fbc-4124-4d47-8aa3-d13bfaf2ab4f"/>
@@ -13922,27 +13943,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="1e5fb10a-b241-4bce-b11c-4885c5c0965b" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="c0e96fbc-4124-4d47-8aa3-d13bfaf2ab4f">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D705FD5-2153-495F-8652-F86C2319EF3E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97170F40-D87D-4EA2-A386-7EDE39945EE6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="1e5fb10a-b241-4bce-b11c-4885c5c0965b"/>
+    <ds:schemaRef ds:uri="c0e96fbc-4124-4d47-8aa3-d13bfaf2ab4f"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C0773B62-E4A5-4082-910B-9AFF45CD8876}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -13960,23 +13980,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97170F40-D87D-4EA2-A386-7EDE39945EE6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="1e5fb10a-b241-4bce-b11c-4885c5c0965b"/>
-    <ds:schemaRef ds:uri="c0e96fbc-4124-4d47-8aa3-d13bfaf2ab4f"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D705FD5-2153-495F-8652-F86C2319EF3E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>